--- a/matrix_function.xlsx
+++ b/matrix_function.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goimomoka/Documents/momoka-goi-educure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C0FD1C-67F8-A445-8C2E-675AE0D1C0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46281603-6855-BB4E-9125-70D6894397BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="1820" windowWidth="28300" windowHeight="17000" xr2:uid="{18C92A01-9E8D-BB4F-8521-3C9FD6D891F1}"/>
   </bookViews>
@@ -161,9 +161,6 @@
     <t>期間, ユーザーID, フィルタ条件</t>
   </si>
   <si>
-    <t>検索/絞り込み</t>
-  </si>
-  <si>
     <t>月ごとの収入・支出と差額を集計する</t>
   </si>
   <si>
@@ -254,6 +251,13 @@
   </si>
   <si>
     <t>CSVエクスポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索/絞り込み/並び変え</t>
+    <rPh sb="8" eb="9">
+      <t>ナラビ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -641,15 +645,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C31B928-F460-3E47-B707-4B1B5BB540C0}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -704,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
@@ -808,7 +812,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -823,16 +827,16 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -847,10 +851,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
@@ -866,19 +870,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -893,16 +897,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -914,19 +918,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -941,16 +945,16 @@
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -965,10 +969,10 @@
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
@@ -984,19 +988,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1008,19 +1012,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>

--- a/matrix_function.xlsx
+++ b/matrix_function.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goimomoka/Documents/momoka-goi-educure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46281603-6855-BB4E-9125-70D6894397BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BAFDFE-5A89-8A4D-9F4F-65CE3719782F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="1820" windowWidth="28300" windowHeight="17000" xr2:uid="{18C92A01-9E8D-BB4F-8521-3C9FD6D891F1}"/>
   </bookViews>

--- a/matrix_function.xlsx
+++ b/matrix_function.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goimomoka/Documents/momoka-goi-educure/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goimomoka/Documents/momoka-goi-educure/6_自作/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BAFDFE-5A89-8A4D-9F4F-65CE3719782F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39133EFC-09A9-A648-A69C-9AD033FED3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1820" windowWidth="28300" windowHeight="17000" xr2:uid="{18C92A01-9E8D-BB4F-8521-3C9FD6D891F1}"/>
+    <workbookView xWindow="960" yWindow="800" windowWidth="28300" windowHeight="17000" xr2:uid="{18C92A01-9E8D-BB4F-8521-3C9FD6D891F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -257,6 +257,127 @@
     <t>検索/絞り込み/並び変え</t>
     <rPh sb="8" eb="9">
       <t>ナラビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール編集</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー本人が氏名、メール等を更新する</t>
+    <rPh sb="7" eb="9">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名、メール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール変更は重複チェック/再認証、パスワード変更は「パスワードリセット」で行う</t>
+    <rPh sb="0" eb="2">
+      <t>メールヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>サイニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報編集</t>
+    <rPh sb="0" eb="4">
+      <t>ユーザージョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー削除</t>
+    <rPh sb="4" eb="6">
+      <t>サクゼィオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者</t>
+    <rPh sb="0" eb="1">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーの氏名、ロール、状態を更新する</t>
+    <rPh sb="5" eb="7">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名、ロール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限チェック必須</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケンゲン </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーを論理削除する（復元可能が望ましい）</t>
+    <rPh sb="5" eb="9">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フクゲn</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>k</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ノゾマシイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deleted_atによる論理削除/関連データは残す</t>
+    <rPh sb="13" eb="17">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンレn</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ノコス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -643,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C31B928-F460-3E47-B707-4B1B5BB540C0}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1031,6 +1152,66 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
